--- a/Data/SNV_filtering_inputs/PillarProject_filtering/BRCA2/20250822_BRCA2_filter_entry.xlsx
+++ b/Data/SNV_filtering_inputs/PillarProject_filtering/BRCA2/20250822_BRCA2_filter_entry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Documents/GitHub/BARD1_SGE_analysis/Data/SNV_filtering_inputs/PillarProject_filtering/BRCA2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E0CD1E-C009-BF42-AC10-FEA848C1D403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655BCE35-3F9B-C542-9470-3C1545BD4C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8C01A5B8-3E10-AC49-BF69-E3F8303A9D28}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="1" xr2:uid="{8C01A5B8-3E10-AC49-BF69-E3F8303A9D28}"/>
   </bookViews>
   <sheets>
     <sheet name="targets" sheetId="1" r:id="rId1"/>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62994A6-6D19-2F4F-B0C1-5CEBE9CEC4CE}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -463,37 +463,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
-        <v>32319064</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2">
+        <v>32319063</v>
+      </c>
+      <c r="C2">
         <v>32319182</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>32319130</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>32319249</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>32319222</v>
       </c>
-      <c r="C4" s="1">
-        <v>32319340</v>
+      <c r="C4">
+        <v>32319341</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BCB253C-CE7B-4D4F-A103-4E1CDA9C73EC}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,10 +524,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>32319051</v>
+        <v>32319077</v>
       </c>
       <c r="B2" s="2">
-        <v>32319299</v>
+        <v>32319325</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -571,7 +571,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -587,12 +587,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>32315474</v>
-      </c>
-      <c r="B2" s="1">
-        <v>32400266</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>32314586</v>
+      </c>
+      <c r="B2" s="2">
+        <v>32400768</v>
       </c>
       <c r="C2">
         <v>1</v>
